--- a/Odds-Data/Odds-Data-Clean/2014-15.xlsx
+++ b/Odds-Data/Odds-Data-Clean/2014-15.xlsx
@@ -19252,7 +19252,7 @@
         <v>381</v>
       </c>
       <c r="H526" t="s">
-        <v>381</v>
+        <v>591</v>
       </c>
       <c r="I526">
         <v>192</v>
